--- a/Example Trial Balance Report.xlsx
+++ b/Example Trial Balance Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBGL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TBGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A81E8C-036C-4318-898A-2783F78C3EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0438D6-5E71-4010-95AA-50EC09E4BFD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E987C095-86CC-44D9-B32F-10CD9F73418F}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Location:</t>
   </si>
   <si>
-    <t>1000--Example Property</t>
-  </si>
-  <si>
     <t>1/1/2025</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>CBA Balancer</t>
+  </si>
+  <si>
+    <t>1234--Example Property</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE715460-6621-4AE4-8D84-1C3A758F96C0}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -612,51 +612,51 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>353170.47</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>127094.71</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>15.81</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>30601.17</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>55486.95</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>188570.72</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>3933</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>163315.18</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>826402.73</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>225913.05</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
         <v>131419.19</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>5026.26</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
         <v>-76395.62</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C22" s="2">
         <v>-2034553.62</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C9:C22)</f>
